--- a/Segmentation.xlsx
+++ b/Segmentation.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lyndonchan/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lyndonchan/languageAzure/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{896BEC57-AF59-BD4C-902F-A521CA2199AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6C5918D-FB9F-AD4D-A382-79E771DED76F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="760" yWindow="1000" windowWidth="27640" windowHeight="15880" xr2:uid="{97733F8E-00A3-E143-999F-9CB389F936C3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Text</t>
   </si>
@@ -72,6 +72,12 @@
   </si>
   <si>
     <t xml:space="preserve">I like listening to love song, especially when I am sad. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I bought a computer and the performance is great. </t>
+  </si>
+  <si>
+    <t>It is definitely worth to spend 2 hours watching Iron Man.</t>
   </si>
 </sst>
 </file>
@@ -423,7 +429,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36C3BE63-6D91-914E-AB70-73E9D22C43E0}">
-  <dimension ref="A1:A12"/>
+  <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
@@ -494,6 +500,16 @@
         <v>11</v>
       </c>
     </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
